--- a/rtw_excel_report/report_ship_order/ship_order.xlsx
+++ b/rtw_excel_report/report_ship_order/ship_order.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\odoo\rtw-custom\rtw_excel_report\report_ship_order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A8467E-E046-437C-9998-B5181ADA5E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37B5B54-3047-4F45-8789-C56A44185E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F8CE68A-361E-4431-836F-63246026B8ED}"/>
+    <workbookView xWindow="4110" yWindow="645" windowWidth="17535" windowHeight="13710" xr2:uid="{6F8CE68A-361E-4431-836F-63246026B8ED}"/>
   </bookViews>
   <sheets>
     <sheet name="出荷依頼書" sheetId="1" r:id="rId1"/>
@@ -328,6 +328,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -337,9 +340,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -742,7 +742,7 @@
   <dimension ref="A1:I1033"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -876,7 +876,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B10" s="38"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -910,8 +910,8 @@
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
     </row>
     <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
@@ -923,24 +923,24 @@
       <c r="E13" s="29"/>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
     </row>
     <row r="14" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="34"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="28"/>
       <c r="D14" s="12"/>
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
     </row>
     <row r="15" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="34"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="28"/>
       <c r="D15" s="12"/>
       <c r="H15" s="32" t="s">
@@ -951,44 +951,44 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="H16" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="35" t="s">
+      <c r="I16" s="36" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="36"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="26"/>

--- a/rtw_excel_report/report_ship_order/ship_order.xlsx
+++ b/rtw_excel_report/report_ship_order/ship_order.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\odoo\rtw-custom\rtw_excel_report\report_ship_order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F191EC6E-E3A7-480F-A53B-52E53A0A1826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840E49BC-28D9-4538-8B96-0576085DDE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="出荷依頼書" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,13 +163,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="HGPｺﾞｼｯｸM"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="HGPｺﾞｼｯｸM"/>
       <family val="3"/>
@@ -260,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -326,7 +319,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -335,22 +328,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -366,25 +359,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -395,6 +379,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -693,7 +680,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="I4" sqref="I4:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -756,7 +743,7 @@
       <c r="E4" s="16"/>
       <c r="F4" s="20"/>
       <c r="G4" s="14"/>
-      <c r="I4" s="36"/>
+      <c r="I4" s="45"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
@@ -768,7 +755,7 @@
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
-      <c r="I5" s="37"/>
+      <c r="I5" s="45"/>
     </row>
     <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
@@ -780,7 +767,7 @@
       <c r="E6" s="16"/>
       <c r="F6" s="14"/>
       <c r="G6" s="16"/>
-      <c r="I6" s="38"/>
+      <c r="I6" s="45"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="14" t="s">
@@ -794,7 +781,7 @@
       <c r="E7" s="16"/>
       <c r="F7" s="14"/>
       <c r="G7" s="16"/>
-      <c r="I7" s="38"/>
+      <c r="I7" s="45"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
@@ -804,7 +791,7 @@
       <c r="E8" s="16"/>
       <c r="F8" s="21"/>
       <c r="G8" s="16"/>
-      <c r="I8" s="39"/>
+      <c r="I8" s="45"/>
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="14" t="s">
@@ -816,7 +803,7 @@
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
-      <c r="I9" s="39"/>
+      <c r="I9" s="45"/>
     </row>
     <row r="10" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
@@ -827,7 +814,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="22"/>
-      <c r="I10" s="36"/>
+      <c r="I10" s="45"/>
     </row>
     <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
@@ -848,14 +835,14 @@
       <c r="A12" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="47"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="44"/>
     </row>
     <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14" t="s">
@@ -867,8 +854,8 @@
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
     </row>
     <row r="14" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="16"/>
@@ -878,8 +865,8 @@
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
     </row>
     <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
@@ -898,50 +885,50 @@
       <c r="I16" s="34"/>
     </row>
     <row r="18" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="42" t="s">
+      <c r="F18" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="42" t="s">
+      <c r="G18" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="42" t="s">
+      <c r="H18" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="42" t="s">
+      <c r="I18" s="39" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A20" s="34"/>
       <c r="B20" s="13"/>
       <c r="C20" s="15"/>
-      <c r="D20" s="41"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="25"/>
@@ -969,7 +956,7 @@
       <c r="A21" s="34"/>
       <c r="B21" s="13"/>
       <c r="C21" s="15"/>
-      <c r="D21" s="41"/>
+      <c r="D21" s="38"/>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
       <c r="G21" s="24"/>
@@ -997,7 +984,7 @@
       <c r="A22" s="34"/>
       <c r="B22" s="13"/>
       <c r="C22" s="15"/>
-      <c r="D22" s="41"/>
+      <c r="D22" s="38"/>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="25"/>
@@ -1023,9 +1010,9 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A23" s="35"/>
-      <c r="B23" s="40"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="15"/>
-      <c r="D23" s="41"/>
+      <c r="D23" s="38"/>
       <c r="E23" s="27"/>
       <c r="F23" s="27"/>
       <c r="G23" s="24"/>
@@ -1053,7 +1040,7 @@
       <c r="A24" s="34"/>
       <c r="B24" s="13"/>
       <c r="C24" s="15"/>
-      <c r="D24" s="41"/>
+      <c r="D24" s="38"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="25"/>
@@ -1081,7 +1068,7 @@
       <c r="A25" s="34"/>
       <c r="B25" s="13"/>
       <c r="C25" s="15"/>
-      <c r="D25" s="41"/>
+      <c r="D25" s="38"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="25"/>
@@ -1109,7 +1096,7 @@
       <c r="A26" s="34"/>
       <c r="B26" s="13"/>
       <c r="C26" s="15"/>
-      <c r="D26" s="41"/>
+      <c r="D26" s="38"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
       <c r="G26" s="25"/>
@@ -1135,9 +1122,9 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A27" s="35"/>
-      <c r="B27" s="40"/>
+      <c r="B27" s="37"/>
       <c r="C27" s="15"/>
-      <c r="D27" s="41"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
       <c r="G27" s="24"/>
@@ -1163,9 +1150,9 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A28" s="35"/>
-      <c r="B28" s="40"/>
+      <c r="B28" s="37"/>
       <c r="C28" s="15"/>
-      <c r="D28" s="41"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
       <c r="G28" s="24"/>
@@ -1191,9 +1178,9 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A29" s="35"/>
-      <c r="B29" s="40"/>
+      <c r="B29" s="37"/>
       <c r="C29" s="15"/>
-      <c r="D29" s="41"/>
+      <c r="D29" s="38"/>
       <c r="E29" s="27"/>
       <c r="F29" s="27"/>
       <c r="G29" s="24"/>
@@ -1219,9 +1206,9 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A30" s="35"/>
-      <c r="B30" s="40"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="15"/>
-      <c r="D30" s="41"/>
+      <c r="D30" s="38"/>
       <c r="E30" s="27"/>
       <c r="F30" s="27"/>
       <c r="G30" s="24"/>
@@ -1247,9 +1234,9 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A31" s="35"/>
-      <c r="B31" s="40"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="41"/>
+      <c r="D31" s="38"/>
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
       <c r="G31" s="24"/>
@@ -1275,9 +1262,9 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A32" s="35"/>
-      <c r="B32" s="40"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="15"/>
-      <c r="D32" s="41"/>
+      <c r="D32" s="38"/>
       <c r="E32" s="27"/>
       <c r="F32" s="27"/>
       <c r="G32" s="24"/>
@@ -1303,9 +1290,9 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A33" s="35"/>
-      <c r="B33" s="40"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="15"/>
-      <c r="D33" s="41"/>
+      <c r="D33" s="38"/>
       <c r="E33" s="27"/>
       <c r="F33" s="27"/>
       <c r="G33" s="24"/>
@@ -1331,9 +1318,9 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A34" s="35"/>
-      <c r="B34" s="40"/>
+      <c r="B34" s="37"/>
       <c r="C34" s="15"/>
-      <c r="D34" s="41"/>
+      <c r="D34" s="38"/>
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
       <c r="G34" s="24"/>
@@ -1359,9 +1346,9 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A35" s="35"/>
-      <c r="B35" s="40"/>
+      <c r="B35" s="37"/>
       <c r="C35" s="15"/>
-      <c r="D35" s="41"/>
+      <c r="D35" s="38"/>
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
       <c r="G35" s="24"/>
@@ -1387,9 +1374,9 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A36" s="35"/>
-      <c r="B36" s="40"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="15"/>
-      <c r="D36" s="41"/>
+      <c r="D36" s="38"/>
       <c r="E36" s="27"/>
       <c r="F36" s="27"/>
       <c r="G36" s="24"/>
@@ -1415,9 +1402,9 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A37" s="35"/>
-      <c r="B37" s="40"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="15"/>
-      <c r="D37" s="41"/>
+      <c r="D37" s="38"/>
       <c r="E37" s="27"/>
       <c r="F37" s="27"/>
       <c r="G37" s="24"/>
@@ -1443,9 +1430,9 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A38" s="35"/>
-      <c r="B38" s="40"/>
+      <c r="B38" s="37"/>
       <c r="C38" s="15"/>
-      <c r="D38" s="41"/>
+      <c r="D38" s="38"/>
       <c r="E38" s="27"/>
       <c r="F38" s="27"/>
       <c r="G38" s="24"/>
@@ -1471,9 +1458,9 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A39" s="35"/>
-      <c r="B39" s="40"/>
+      <c r="B39" s="37"/>
       <c r="C39" s="15"/>
-      <c r="D39" s="41"/>
+      <c r="D39" s="38"/>
       <c r="E39" s="27"/>
       <c r="F39" s="27"/>
       <c r="G39" s="24"/>
@@ -1499,9 +1486,9 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A40" s="35"/>
-      <c r="B40" s="40"/>
+      <c r="B40" s="37"/>
       <c r="C40" s="15"/>
-      <c r="D40" s="41"/>
+      <c r="D40" s="38"/>
       <c r="E40" s="27"/>
       <c r="F40" s="27"/>
       <c r="G40" s="24"/>
@@ -1527,9 +1514,9 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A41" s="35"/>
-      <c r="B41" s="40"/>
+      <c r="B41" s="37"/>
       <c r="C41" s="15"/>
-      <c r="D41" s="41"/>
+      <c r="D41" s="38"/>
       <c r="E41" s="27"/>
       <c r="F41" s="27"/>
       <c r="G41" s="24"/>
@@ -1555,9 +1542,9 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A42" s="35"/>
-      <c r="B42" s="40"/>
+      <c r="B42" s="37"/>
       <c r="C42" s="15"/>
-      <c r="D42" s="41"/>
+      <c r="D42" s="38"/>
       <c r="E42" s="27"/>
       <c r="F42" s="27"/>
       <c r="G42" s="24"/>
@@ -1583,9 +1570,9 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A43" s="35"/>
-      <c r="B43" s="40"/>
+      <c r="B43" s="37"/>
       <c r="C43" s="15"/>
-      <c r="D43" s="41"/>
+      <c r="D43" s="38"/>
       <c r="E43" s="27"/>
       <c r="F43" s="27"/>
       <c r="G43" s="24"/>
@@ -1611,9 +1598,9 @@
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A44" s="35"/>
-      <c r="B44" s="40"/>
+      <c r="B44" s="37"/>
       <c r="C44" s="15"/>
-      <c r="D44" s="41"/>
+      <c r="D44" s="38"/>
       <c r="E44" s="27"/>
       <c r="F44" s="27"/>
       <c r="G44" s="24"/>
@@ -1639,9 +1626,9 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A45" s="35"/>
-      <c r="B45" s="40"/>
+      <c r="B45" s="37"/>
       <c r="C45" s="15"/>
-      <c r="D45" s="41"/>
+      <c r="D45" s="38"/>
       <c r="E45" s="27"/>
       <c r="F45" s="27"/>
       <c r="G45" s="24"/>
@@ -1667,9 +1654,9 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A46" s="35"/>
-      <c r="B46" s="40"/>
+      <c r="B46" s="37"/>
       <c r="C46" s="15"/>
-      <c r="D46" s="41"/>
+      <c r="D46" s="38"/>
       <c r="E46" s="27"/>
       <c r="F46" s="27"/>
       <c r="G46" s="24"/>
@@ -1695,9 +1682,9 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A47" s="35"/>
-      <c r="B47" s="40"/>
+      <c r="B47" s="37"/>
       <c r="C47" s="15"/>
-      <c r="D47" s="41"/>
+      <c r="D47" s="38"/>
       <c r="E47" s="27"/>
       <c r="F47" s="27"/>
       <c r="G47" s="24"/>
@@ -1723,9 +1710,9 @@
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A48" s="35"/>
-      <c r="B48" s="40"/>
+      <c r="B48" s="37"/>
       <c r="C48" s="15"/>
-      <c r="D48" s="41"/>
+      <c r="D48" s="38"/>
       <c r="E48" s="27"/>
       <c r="F48" s="27"/>
       <c r="G48" s="24"/>
@@ -1751,9 +1738,9 @@
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A49" s="35"/>
-      <c r="B49" s="40"/>
+      <c r="B49" s="37"/>
       <c r="C49" s="15"/>
-      <c r="D49" s="41"/>
+      <c r="D49" s="38"/>
       <c r="E49" s="27"/>
       <c r="F49" s="27"/>
       <c r="G49" s="24"/>
@@ -1779,9 +1766,9 @@
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A50" s="35"/>
-      <c r="B50" s="40"/>
+      <c r="B50" s="37"/>
       <c r="C50" s="15"/>
-      <c r="D50" s="41"/>
+      <c r="D50" s="38"/>
       <c r="E50" s="27"/>
       <c r="F50" s="27"/>
       <c r="G50" s="24"/>
@@ -1807,9 +1794,9 @@
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A51" s="35"/>
-      <c r="B51" s="40"/>
+      <c r="B51" s="37"/>
       <c r="C51" s="15"/>
-      <c r="D51" s="41"/>
+      <c r="D51" s="38"/>
       <c r="E51" s="27"/>
       <c r="F51" s="27"/>
       <c r="G51" s="24"/>
@@ -1835,9 +1822,9 @@
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A52" s="35"/>
-      <c r="B52" s="40"/>
+      <c r="B52" s="37"/>
       <c r="C52" s="15"/>
-      <c r="D52" s="41"/>
+      <c r="D52" s="38"/>
       <c r="E52" s="27"/>
       <c r="F52" s="27"/>
       <c r="G52" s="24"/>
@@ -1863,9 +1850,9 @@
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A53" s="35"/>
-      <c r="B53" s="40"/>
+      <c r="B53" s="37"/>
       <c r="C53" s="15"/>
-      <c r="D53" s="41"/>
+      <c r="D53" s="38"/>
       <c r="E53" s="27"/>
       <c r="F53" s="27"/>
       <c r="G53" s="24"/>
@@ -1891,9 +1878,9 @@
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A54" s="35"/>
-      <c r="B54" s="40"/>
+      <c r="B54" s="37"/>
       <c r="C54" s="15"/>
-      <c r="D54" s="41"/>
+      <c r="D54" s="38"/>
       <c r="E54" s="27"/>
       <c r="F54" s="27"/>
       <c r="G54" s="24"/>
@@ -1919,9 +1906,9 @@
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A55" s="35"/>
-      <c r="B55" s="40"/>
+      <c r="B55" s="37"/>
       <c r="C55" s="15"/>
-      <c r="D55" s="41"/>
+      <c r="D55" s="38"/>
       <c r="E55" s="27"/>
       <c r="F55" s="27"/>
       <c r="G55" s="24"/>
@@ -1947,9 +1934,9 @@
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A56" s="35"/>
-      <c r="B56" s="40"/>
+      <c r="B56" s="37"/>
       <c r="C56" s="15"/>
-      <c r="D56" s="41"/>
+      <c r="D56" s="38"/>
       <c r="E56" s="27"/>
       <c r="F56" s="27"/>
       <c r="G56" s="24"/>
@@ -1975,9 +1962,9 @@
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A57" s="35"/>
-      <c r="B57" s="40"/>
+      <c r="B57" s="37"/>
       <c r="C57" s="15"/>
-      <c r="D57" s="41"/>
+      <c r="D57" s="38"/>
       <c r="E57" s="27"/>
       <c r="F57" s="27"/>
       <c r="G57" s="24"/>
@@ -2003,9 +1990,9 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A58" s="35"/>
-      <c r="B58" s="40"/>
+      <c r="B58" s="37"/>
       <c r="C58" s="15"/>
-      <c r="D58" s="41"/>
+      <c r="D58" s="38"/>
       <c r="E58" s="27"/>
       <c r="F58" s="27"/>
       <c r="G58" s="24"/>
@@ -2031,9 +2018,9 @@
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A59" s="35"/>
-      <c r="B59" s="40"/>
+      <c r="B59" s="37"/>
       <c r="C59" s="15"/>
-      <c r="D59" s="41"/>
+      <c r="D59" s="38"/>
       <c r="E59" s="27"/>
       <c r="F59" s="27"/>
       <c r="G59" s="24"/>
@@ -2059,9 +2046,9 @@
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A60" s="35"/>
-      <c r="B60" s="40"/>
+      <c r="B60" s="37"/>
       <c r="C60" s="15"/>
-      <c r="D60" s="41"/>
+      <c r="D60" s="38"/>
       <c r="E60" s="27"/>
       <c r="F60" s="27"/>
       <c r="G60" s="24"/>
@@ -2087,9 +2074,9 @@
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A61" s="35"/>
-      <c r="B61" s="40"/>
+      <c r="B61" s="37"/>
       <c r="C61" s="15"/>
-      <c r="D61" s="41"/>
+      <c r="D61" s="38"/>
       <c r="E61" s="27"/>
       <c r="F61" s="27"/>
       <c r="G61" s="24"/>
@@ -2115,9 +2102,9 @@
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A62" s="35"/>
-      <c r="B62" s="40"/>
+      <c r="B62" s="37"/>
       <c r="C62" s="15"/>
-      <c r="D62" s="41"/>
+      <c r="D62" s="38"/>
       <c r="E62" s="27"/>
       <c r="F62" s="27"/>
       <c r="G62" s="24"/>
@@ -2143,9 +2130,9 @@
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A63" s="35"/>
-      <c r="B63" s="40"/>
+      <c r="B63" s="37"/>
       <c r="C63" s="15"/>
-      <c r="D63" s="41"/>
+      <c r="D63" s="38"/>
       <c r="E63" s="27"/>
       <c r="F63" s="27"/>
       <c r="G63" s="24"/>
@@ -2171,9 +2158,9 @@
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A64" s="35"/>
-      <c r="B64" s="40"/>
+      <c r="B64" s="37"/>
       <c r="C64" s="15"/>
-      <c r="D64" s="41"/>
+      <c r="D64" s="38"/>
       <c r="E64" s="27"/>
       <c r="F64" s="27"/>
       <c r="G64" s="24"/>
@@ -2199,9 +2186,9 @@
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A65" s="35"/>
-      <c r="B65" s="40"/>
+      <c r="B65" s="37"/>
       <c r="C65" s="15"/>
-      <c r="D65" s="41"/>
+      <c r="D65" s="38"/>
       <c r="E65" s="27"/>
       <c r="F65" s="27"/>
       <c r="G65" s="24"/>
@@ -2227,9 +2214,9 @@
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A66" s="35"/>
-      <c r="B66" s="40"/>
+      <c r="B66" s="37"/>
       <c r="C66" s="15"/>
-      <c r="D66" s="41"/>
+      <c r="D66" s="38"/>
       <c r="E66" s="27"/>
       <c r="F66" s="27"/>
       <c r="G66" s="24"/>
@@ -2255,9 +2242,9 @@
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A67" s="35"/>
-      <c r="B67" s="40"/>
+      <c r="B67" s="37"/>
       <c r="C67" s="15"/>
-      <c r="D67" s="41"/>
+      <c r="D67" s="38"/>
       <c r="E67" s="27"/>
       <c r="F67" s="27"/>
       <c r="G67" s="24"/>
@@ -2283,9 +2270,9 @@
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A68" s="35"/>
-      <c r="B68" s="40"/>
+      <c r="B68" s="37"/>
       <c r="C68" s="15"/>
-      <c r="D68" s="41"/>
+      <c r="D68" s="38"/>
       <c r="E68" s="27"/>
       <c r="F68" s="27"/>
       <c r="G68" s="24"/>
@@ -2311,9 +2298,9 @@
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A69" s="35"/>
-      <c r="B69" s="40"/>
+      <c r="B69" s="37"/>
       <c r="C69" s="15"/>
-      <c r="D69" s="41"/>
+      <c r="D69" s="38"/>
       <c r="E69" s="27"/>
       <c r="F69" s="27"/>
       <c r="G69" s="24"/>
@@ -2339,9 +2326,9 @@
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A70" s="35"/>
-      <c r="B70" s="40"/>
+      <c r="B70" s="37"/>
       <c r="C70" s="15"/>
-      <c r="D70" s="41"/>
+      <c r="D70" s="38"/>
       <c r="E70" s="27"/>
       <c r="F70" s="27"/>
       <c r="G70" s="24"/>
@@ -2367,9 +2354,9 @@
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A71" s="35"/>
-      <c r="B71" s="40"/>
+      <c r="B71" s="37"/>
       <c r="C71" s="15"/>
-      <c r="D71" s="41"/>
+      <c r="D71" s="38"/>
       <c r="E71" s="27"/>
       <c r="F71" s="27"/>
       <c r="G71" s="24"/>
@@ -2395,9 +2382,9 @@
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A72" s="35"/>
-      <c r="B72" s="40"/>
+      <c r="B72" s="37"/>
       <c r="C72" s="15"/>
-      <c r="D72" s="41"/>
+      <c r="D72" s="38"/>
       <c r="E72" s="27"/>
       <c r="F72" s="27"/>
       <c r="G72" s="24"/>
@@ -2423,9 +2410,9 @@
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A73" s="35"/>
-      <c r="B73" s="40"/>
+      <c r="B73" s="37"/>
       <c r="C73" s="15"/>
-      <c r="D73" s="41"/>
+      <c r="D73" s="38"/>
       <c r="E73" s="27"/>
       <c r="F73" s="27"/>
       <c r="G73" s="24"/>
@@ -2451,9 +2438,9 @@
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A74" s="35"/>
-      <c r="B74" s="40"/>
+      <c r="B74" s="37"/>
       <c r="C74" s="15"/>
-      <c r="D74" s="41"/>
+      <c r="D74" s="38"/>
       <c r="E74" s="27"/>
       <c r="F74" s="27"/>
       <c r="G74" s="24"/>
@@ -2479,9 +2466,9 @@
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A75" s="35"/>
-      <c r="B75" s="40"/>
+      <c r="B75" s="37"/>
       <c r="C75" s="15"/>
-      <c r="D75" s="41"/>
+      <c r="D75" s="38"/>
       <c r="E75" s="27"/>
       <c r="F75" s="27"/>
       <c r="G75" s="24"/>
@@ -2507,9 +2494,9 @@
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A76" s="35"/>
-      <c r="B76" s="40"/>
+      <c r="B76" s="37"/>
       <c r="C76" s="15"/>
-      <c r="D76" s="41"/>
+      <c r="D76" s="38"/>
       <c r="E76" s="27"/>
       <c r="F76" s="27"/>
       <c r="G76" s="24"/>
@@ -2535,9 +2522,9 @@
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A77" s="35"/>
-      <c r="B77" s="40"/>
+      <c r="B77" s="37"/>
       <c r="C77" s="15"/>
-      <c r="D77" s="41"/>
+      <c r="D77" s="38"/>
       <c r="E77" s="27"/>
       <c r="F77" s="27"/>
       <c r="G77" s="24"/>
@@ -2563,9 +2550,9 @@
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A78" s="35"/>
-      <c r="B78" s="40"/>
+      <c r="B78" s="37"/>
       <c r="C78" s="15"/>
-      <c r="D78" s="41"/>
+      <c r="D78" s="38"/>
       <c r="E78" s="27"/>
       <c r="F78" s="27"/>
       <c r="G78" s="24"/>
@@ -2591,9 +2578,9 @@
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A79" s="35"/>
-      <c r="B79" s="40"/>
+      <c r="B79" s="37"/>
       <c r="C79" s="15"/>
-      <c r="D79" s="41"/>
+      <c r="D79" s="38"/>
       <c r="E79" s="27"/>
       <c r="F79" s="27"/>
       <c r="G79" s="24"/>
@@ -2619,9 +2606,9 @@
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A80" s="35"/>
-      <c r="B80" s="40"/>
+      <c r="B80" s="37"/>
       <c r="C80" s="15"/>
-      <c r="D80" s="41"/>
+      <c r="D80" s="38"/>
       <c r="E80" s="27"/>
       <c r="F80" s="27"/>
       <c r="G80" s="24"/>
@@ -2647,9 +2634,9 @@
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A81" s="35"/>
-      <c r="B81" s="40"/>
+      <c r="B81" s="37"/>
       <c r="C81" s="15"/>
-      <c r="D81" s="41"/>
+      <c r="D81" s="38"/>
       <c r="E81" s="27"/>
       <c r="F81" s="27"/>
       <c r="G81" s="24"/>
@@ -2675,9 +2662,9 @@
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A82" s="35"/>
-      <c r="B82" s="40"/>
+      <c r="B82" s="37"/>
       <c r="C82" s="15"/>
-      <c r="D82" s="41"/>
+      <c r="D82" s="38"/>
       <c r="E82" s="27"/>
       <c r="F82" s="27"/>
       <c r="G82" s="24"/>
@@ -2703,9 +2690,9 @@
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A83" s="35"/>
-      <c r="B83" s="40"/>
+      <c r="B83" s="37"/>
       <c r="C83" s="15"/>
-      <c r="D83" s="41"/>
+      <c r="D83" s="38"/>
       <c r="E83" s="27"/>
       <c r="F83" s="27"/>
       <c r="G83" s="24"/>
@@ -2731,9 +2718,9 @@
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A84" s="35"/>
-      <c r="B84" s="40"/>
+      <c r="B84" s="37"/>
       <c r="C84" s="15"/>
-      <c r="D84" s="41"/>
+      <c r="D84" s="38"/>
       <c r="E84" s="27"/>
       <c r="F84" s="27"/>
       <c r="G84" s="24"/>
@@ -2759,9 +2746,9 @@
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A85" s="35"/>
-      <c r="B85" s="40"/>
+      <c r="B85" s="37"/>
       <c r="C85" s="15"/>
-      <c r="D85" s="41"/>
+      <c r="D85" s="38"/>
       <c r="E85" s="27"/>
       <c r="F85" s="27"/>
       <c r="G85" s="24"/>
@@ -2787,9 +2774,9 @@
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A86" s="35"/>
-      <c r="B86" s="40"/>
+      <c r="B86" s="37"/>
       <c r="C86" s="15"/>
-      <c r="D86" s="41"/>
+      <c r="D86" s="38"/>
       <c r="E86" s="27"/>
       <c r="F86" s="27"/>
       <c r="G86" s="24"/>
@@ -2815,9 +2802,9 @@
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A87" s="35"/>
-      <c r="B87" s="40"/>
+      <c r="B87" s="37"/>
       <c r="C87" s="15"/>
-      <c r="D87" s="41"/>
+      <c r="D87" s="38"/>
       <c r="E87" s="27"/>
       <c r="F87" s="27"/>
       <c r="G87" s="24"/>
@@ -2843,9 +2830,9 @@
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A88" s="35"/>
-      <c r="B88" s="40"/>
+      <c r="B88" s="37"/>
       <c r="C88" s="15"/>
-      <c r="D88" s="41"/>
+      <c r="D88" s="38"/>
       <c r="E88" s="27"/>
       <c r="F88" s="27"/>
       <c r="G88" s="24"/>
@@ -2871,9 +2858,9 @@
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A89" s="35"/>
-      <c r="B89" s="40"/>
+      <c r="B89" s="37"/>
       <c r="C89" s="15"/>
-      <c r="D89" s="41"/>
+      <c r="D89" s="38"/>
       <c r="E89" s="27"/>
       <c r="F89" s="27"/>
       <c r="G89" s="24"/>
@@ -2899,9 +2886,9 @@
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A90" s="35"/>
-      <c r="B90" s="40"/>
+      <c r="B90" s="37"/>
       <c r="C90" s="15"/>
-      <c r="D90" s="41"/>
+      <c r="D90" s="38"/>
       <c r="E90" s="27"/>
       <c r="F90" s="27"/>
       <c r="G90" s="24"/>
@@ -2927,9 +2914,9 @@
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A91" s="35"/>
-      <c r="B91" s="40"/>
+      <c r="B91" s="37"/>
       <c r="C91" s="15"/>
-      <c r="D91" s="41"/>
+      <c r="D91" s="38"/>
       <c r="E91" s="27"/>
       <c r="F91" s="27"/>
       <c r="G91" s="24"/>
@@ -2955,9 +2942,9 @@
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A92" s="35"/>
-      <c r="B92" s="40"/>
+      <c r="B92" s="37"/>
       <c r="C92" s="15"/>
-      <c r="D92" s="41"/>
+      <c r="D92" s="38"/>
       <c r="E92" s="27"/>
       <c r="F92" s="27"/>
       <c r="G92" s="24"/>
@@ -2983,9 +2970,9 @@
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A93" s="35"/>
-      <c r="B93" s="40"/>
+      <c r="B93" s="37"/>
       <c r="C93" s="15"/>
-      <c r="D93" s="41"/>
+      <c r="D93" s="38"/>
       <c r="E93" s="27"/>
       <c r="F93" s="27"/>
       <c r="G93" s="24"/>
@@ -3011,9 +2998,9 @@
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A94" s="35"/>
-      <c r="B94" s="40"/>
+      <c r="B94" s="37"/>
       <c r="C94" s="15"/>
-      <c r="D94" s="41"/>
+      <c r="D94" s="38"/>
       <c r="E94" s="27"/>
       <c r="F94" s="27"/>
       <c r="G94" s="24"/>
@@ -3039,9 +3026,9 @@
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A95" s="35"/>
-      <c r="B95" s="40"/>
+      <c r="B95" s="37"/>
       <c r="C95" s="15"/>
-      <c r="D95" s="41"/>
+      <c r="D95" s="38"/>
       <c r="E95" s="27"/>
       <c r="F95" s="27"/>
       <c r="G95" s="24"/>
@@ -3067,9 +3054,9 @@
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A96" s="35"/>
-      <c r="B96" s="40"/>
+      <c r="B96" s="37"/>
       <c r="C96" s="15"/>
-      <c r="D96" s="41"/>
+      <c r="D96" s="38"/>
       <c r="E96" s="27"/>
       <c r="F96" s="27"/>
       <c r="G96" s="24"/>
@@ -3095,9 +3082,9 @@
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A97" s="35"/>
-      <c r="B97" s="40"/>
+      <c r="B97" s="37"/>
       <c r="C97" s="15"/>
-      <c r="D97" s="41"/>
+      <c r="D97" s="38"/>
       <c r="E97" s="27"/>
       <c r="F97" s="27"/>
       <c r="G97" s="24"/>
@@ -3123,9 +3110,9 @@
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A98" s="35"/>
-      <c r="B98" s="40"/>
+      <c r="B98" s="37"/>
       <c r="C98" s="15"/>
-      <c r="D98" s="41"/>
+      <c r="D98" s="38"/>
       <c r="E98" s="27"/>
       <c r="F98" s="27"/>
       <c r="G98" s="24"/>
@@ -3151,9 +3138,9 @@
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A99" s="35"/>
-      <c r="B99" s="40"/>
+      <c r="B99" s="37"/>
       <c r="C99" s="15"/>
-      <c r="D99" s="41"/>
+      <c r="D99" s="38"/>
       <c r="E99" s="27"/>
       <c r="F99" s="27"/>
       <c r="G99" s="24"/>
@@ -3179,9 +3166,9 @@
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A100" s="35"/>
-      <c r="B100" s="40"/>
+      <c r="B100" s="37"/>
       <c r="C100" s="15"/>
-      <c r="D100" s="41"/>
+      <c r="D100" s="38"/>
       <c r="E100" s="27"/>
       <c r="F100" s="27"/>
       <c r="G100" s="24"/>
@@ -3207,9 +3194,9 @@
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A101" s="35"/>
-      <c r="B101" s="40"/>
+      <c r="B101" s="37"/>
       <c r="C101" s="15"/>
-      <c r="D101" s="41"/>
+      <c r="D101" s="38"/>
       <c r="E101" s="27"/>
       <c r="F101" s="27"/>
       <c r="G101" s="24"/>
@@ -3235,9 +3222,9 @@
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A102" s="35"/>
-      <c r="B102" s="40"/>
+      <c r="B102" s="37"/>
       <c r="C102" s="15"/>
-      <c r="D102" s="41"/>
+      <c r="D102" s="38"/>
       <c r="E102" s="27"/>
       <c r="F102" s="27"/>
       <c r="G102" s="24"/>
@@ -3263,9 +3250,9 @@
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A103" s="35"/>
-      <c r="B103" s="40"/>
+      <c r="B103" s="37"/>
       <c r="C103" s="15"/>
-      <c r="D103" s="41"/>
+      <c r="D103" s="38"/>
       <c r="E103" s="27"/>
       <c r="F103" s="27"/>
       <c r="G103" s="24"/>
@@ -3291,9 +3278,9 @@
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A104" s="35"/>
-      <c r="B104" s="40"/>
+      <c r="B104" s="37"/>
       <c r="C104" s="15"/>
-      <c r="D104" s="41"/>
+      <c r="D104" s="38"/>
       <c r="E104" s="27"/>
       <c r="F104" s="27"/>
       <c r="G104" s="24"/>
@@ -3319,9 +3306,9 @@
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A105" s="35"/>
-      <c r="B105" s="40"/>
+      <c r="B105" s="37"/>
       <c r="C105" s="15"/>
-      <c r="D105" s="41"/>
+      <c r="D105" s="38"/>
       <c r="E105" s="27"/>
       <c r="F105" s="27"/>
       <c r="G105" s="24"/>
@@ -3347,9 +3334,9 @@
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A106" s="35"/>
-      <c r="B106" s="40"/>
+      <c r="B106" s="37"/>
       <c r="C106" s="15"/>
-      <c r="D106" s="41"/>
+      <c r="D106" s="38"/>
       <c r="E106" s="27"/>
       <c r="F106" s="27"/>
       <c r="G106" s="24"/>
@@ -3375,9 +3362,9 @@
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A107" s="35"/>
-      <c r="B107" s="40"/>
+      <c r="B107" s="37"/>
       <c r="C107" s="15"/>
-      <c r="D107" s="41"/>
+      <c r="D107" s="38"/>
       <c r="E107" s="27"/>
       <c r="F107" s="27"/>
       <c r="G107" s="24"/>
@@ -3403,9 +3390,9 @@
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A108" s="35"/>
-      <c r="B108" s="40"/>
+      <c r="B108" s="37"/>
       <c r="C108" s="15"/>
-      <c r="D108" s="41"/>
+      <c r="D108" s="38"/>
       <c r="E108" s="27"/>
       <c r="F108" s="27"/>
       <c r="G108" s="24"/>
@@ -3431,9 +3418,9 @@
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A109" s="35"/>
-      <c r="B109" s="40"/>
+      <c r="B109" s="37"/>
       <c r="C109" s="15"/>
-      <c r="D109" s="41"/>
+      <c r="D109" s="38"/>
       <c r="E109" s="27"/>
       <c r="F109" s="27"/>
       <c r="G109" s="24"/>
@@ -3459,9 +3446,9 @@
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A110" s="35"/>
-      <c r="B110" s="40"/>
+      <c r="B110" s="37"/>
       <c r="C110" s="15"/>
-      <c r="D110" s="41"/>
+      <c r="D110" s="38"/>
       <c r="E110" s="27"/>
       <c r="F110" s="27"/>
       <c r="G110" s="24"/>
@@ -3487,9 +3474,9 @@
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A111" s="35"/>
-      <c r="B111" s="40"/>
+      <c r="B111" s="37"/>
       <c r="C111" s="15"/>
-      <c r="D111" s="41"/>
+      <c r="D111" s="38"/>
       <c r="E111" s="27"/>
       <c r="F111" s="27"/>
       <c r="G111" s="24"/>
@@ -3515,9 +3502,9 @@
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A112" s="35"/>
-      <c r="B112" s="40"/>
+      <c r="B112" s="37"/>
       <c r="C112" s="15"/>
-      <c r="D112" s="41"/>
+      <c r="D112" s="38"/>
       <c r="E112" s="27"/>
       <c r="F112" s="27"/>
       <c r="G112" s="24"/>
@@ -3543,9 +3530,9 @@
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A113" s="35"/>
-      <c r="B113" s="40"/>
+      <c r="B113" s="37"/>
       <c r="C113" s="15"/>
-      <c r="D113" s="41"/>
+      <c r="D113" s="38"/>
       <c r="E113" s="27"/>
       <c r="F113" s="27"/>
       <c r="G113" s="24"/>
@@ -3571,9 +3558,9 @@
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A114" s="35"/>
-      <c r="B114" s="40"/>
+      <c r="B114" s="37"/>
       <c r="C114" s="15"/>
-      <c r="D114" s="41"/>
+      <c r="D114" s="38"/>
       <c r="E114" s="27"/>
       <c r="F114" s="27"/>
       <c r="G114" s="24"/>
@@ -3599,9 +3586,9 @@
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A115" s="35"/>
-      <c r="B115" s="40"/>
+      <c r="B115" s="37"/>
       <c r="C115" s="15"/>
-      <c r="D115" s="41"/>
+      <c r="D115" s="38"/>
       <c r="E115" s="27"/>
       <c r="F115" s="27"/>
       <c r="G115" s="24"/>
@@ -3627,9 +3614,9 @@
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A116" s="35"/>
-      <c r="B116" s="40"/>
+      <c r="B116" s="37"/>
       <c r="C116" s="15"/>
-      <c r="D116" s="41"/>
+      <c r="D116" s="38"/>
       <c r="E116" s="27"/>
       <c r="F116" s="27"/>
       <c r="G116" s="24"/>
@@ -3655,9 +3642,9 @@
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A117" s="35"/>
-      <c r="B117" s="40"/>
+      <c r="B117" s="37"/>
       <c r="C117" s="15"/>
-      <c r="D117" s="41"/>
+      <c r="D117" s="38"/>
       <c r="E117" s="27"/>
       <c r="F117" s="27"/>
       <c r="G117" s="24"/>
@@ -3683,9 +3670,9 @@
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A118" s="35"/>
-      <c r="B118" s="40"/>
+      <c r="B118" s="37"/>
       <c r="C118" s="15"/>
-      <c r="D118" s="41"/>
+      <c r="D118" s="38"/>
       <c r="E118" s="27"/>
       <c r="F118" s="27"/>
       <c r="G118" s="24"/>
@@ -3711,9 +3698,9 @@
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A119" s="35"/>
-      <c r="B119" s="40"/>
+      <c r="B119" s="37"/>
       <c r="C119" s="15"/>
-      <c r="D119" s="41"/>
+      <c r="D119" s="38"/>
       <c r="E119" s="27"/>
       <c r="F119" s="27"/>
       <c r="G119" s="24"/>
@@ -3739,9 +3726,9 @@
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A120" s="35"/>
-      <c r="B120" s="40"/>
+      <c r="B120" s="37"/>
       <c r="C120" s="15"/>
-      <c r="D120" s="41"/>
+      <c r="D120" s="38"/>
       <c r="E120" s="27"/>
       <c r="F120" s="27"/>
       <c r="G120" s="24"/>
@@ -3767,9 +3754,9 @@
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A121" s="35"/>
-      <c r="B121" s="40"/>
+      <c r="B121" s="37"/>
       <c r="C121" s="15"/>
-      <c r="D121" s="41"/>
+      <c r="D121" s="38"/>
       <c r="E121" s="27"/>
       <c r="F121" s="27"/>
       <c r="G121" s="24"/>
@@ -3795,9 +3782,9 @@
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A122" s="35"/>
-      <c r="B122" s="40"/>
+      <c r="B122" s="37"/>
       <c r="C122" s="15"/>
-      <c r="D122" s="41"/>
+      <c r="D122" s="38"/>
       <c r="E122" s="27"/>
       <c r="F122" s="27"/>
       <c r="G122" s="24"/>
@@ -3823,9 +3810,9 @@
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A123" s="35"/>
-      <c r="B123" s="40"/>
+      <c r="B123" s="37"/>
       <c r="C123" s="15"/>
-      <c r="D123" s="41"/>
+      <c r="D123" s="38"/>
       <c r="E123" s="27"/>
       <c r="F123" s="27"/>
       <c r="G123" s="24"/>
@@ -3851,9 +3838,9 @@
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A124" s="35"/>
-      <c r="B124" s="40"/>
+      <c r="B124" s="37"/>
       <c r="C124" s="15"/>
-      <c r="D124" s="41"/>
+      <c r="D124" s="38"/>
       <c r="E124" s="27"/>
       <c r="F124" s="27"/>
       <c r="G124" s="24"/>
@@ -3879,9 +3866,9 @@
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A125" s="35"/>
-      <c r="B125" s="40"/>
+      <c r="B125" s="37"/>
       <c r="C125" s="15"/>
-      <c r="D125" s="41"/>
+      <c r="D125" s="38"/>
       <c r="E125" s="27"/>
       <c r="F125" s="27"/>
       <c r="G125" s="24"/>
@@ -3907,9 +3894,9 @@
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A126" s="35"/>
-      <c r="B126" s="40"/>
+      <c r="B126" s="37"/>
       <c r="C126" s="15"/>
-      <c r="D126" s="41"/>
+      <c r="D126" s="38"/>
       <c r="E126" s="27"/>
       <c r="F126" s="27"/>
       <c r="G126" s="24"/>
@@ -3935,9 +3922,9 @@
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A127" s="35"/>
-      <c r="B127" s="40"/>
+      <c r="B127" s="37"/>
       <c r="C127" s="15"/>
-      <c r="D127" s="41"/>
+      <c r="D127" s="38"/>
       <c r="E127" s="27"/>
       <c r="F127" s="27"/>
       <c r="G127" s="24"/>
@@ -3963,9 +3950,9 @@
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A128" s="35"/>
-      <c r="B128" s="40"/>
+      <c r="B128" s="37"/>
       <c r="C128" s="15"/>
-      <c r="D128" s="41"/>
+      <c r="D128" s="38"/>
       <c r="E128" s="27"/>
       <c r="F128" s="27"/>
       <c r="G128" s="24"/>
@@ -3991,9 +3978,9 @@
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A129" s="35"/>
-      <c r="B129" s="40"/>
+      <c r="B129" s="37"/>
       <c r="C129" s="15"/>
-      <c r="D129" s="41"/>
+      <c r="D129" s="38"/>
       <c r="E129" s="27"/>
       <c r="F129" s="27"/>
       <c r="G129" s="24"/>
@@ -4019,9 +4006,9 @@
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A130" s="35"/>
-      <c r="B130" s="40"/>
+      <c r="B130" s="37"/>
       <c r="C130" s="15"/>
-      <c r="D130" s="41"/>
+      <c r="D130" s="38"/>
       <c r="E130" s="27"/>
       <c r="F130" s="27"/>
       <c r="G130" s="24"/>
@@ -4047,9 +4034,9 @@
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A131" s="35"/>
-      <c r="B131" s="40"/>
+      <c r="B131" s="37"/>
       <c r="C131" s="15"/>
-      <c r="D131" s="41"/>
+      <c r="D131" s="38"/>
       <c r="E131" s="27"/>
       <c r="F131" s="27"/>
       <c r="G131" s="24"/>
@@ -4075,9 +4062,9 @@
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A132" s="35"/>
-      <c r="B132" s="40"/>
+      <c r="B132" s="37"/>
       <c r="C132" s="15"/>
-      <c r="D132" s="41"/>
+      <c r="D132" s="38"/>
       <c r="E132" s="27"/>
       <c r="F132" s="27"/>
       <c r="G132" s="24"/>
@@ -4103,9 +4090,9 @@
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A133" s="35"/>
-      <c r="B133" s="40"/>
+      <c r="B133" s="37"/>
       <c r="C133" s="15"/>
-      <c r="D133" s="41"/>
+      <c r="D133" s="38"/>
       <c r="E133" s="27"/>
       <c r="F133" s="27"/>
       <c r="G133" s="24"/>
@@ -4131,9 +4118,9 @@
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A134" s="35"/>
-      <c r="B134" s="40"/>
+      <c r="B134" s="37"/>
       <c r="C134" s="15"/>
-      <c r="D134" s="41"/>
+      <c r="D134" s="38"/>
       <c r="E134" s="27"/>
       <c r="F134" s="27"/>
       <c r="G134" s="24"/>
@@ -4159,9 +4146,9 @@
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A135" s="35"/>
-      <c r="B135" s="40"/>
+      <c r="B135" s="37"/>
       <c r="C135" s="15"/>
-      <c r="D135" s="41"/>
+      <c r="D135" s="38"/>
       <c r="E135" s="27"/>
       <c r="F135" s="27"/>
       <c r="G135" s="24"/>
@@ -4187,9 +4174,9 @@
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A136" s="35"/>
-      <c r="B136" s="40"/>
+      <c r="B136" s="37"/>
       <c r="C136" s="15"/>
-      <c r="D136" s="41"/>
+      <c r="D136" s="38"/>
       <c r="E136" s="27"/>
       <c r="F136" s="27"/>
       <c r="G136" s="24"/>
@@ -4215,9 +4202,9 @@
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A137" s="35"/>
-      <c r="B137" s="40"/>
+      <c r="B137" s="37"/>
       <c r="C137" s="15"/>
-      <c r="D137" s="41"/>
+      <c r="D137" s="38"/>
       <c r="E137" s="27"/>
       <c r="F137" s="27"/>
       <c r="G137" s="24"/>
@@ -4243,9 +4230,9 @@
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A138" s="35"/>
-      <c r="B138" s="40"/>
+      <c r="B138" s="37"/>
       <c r="C138" s="15"/>
-      <c r="D138" s="41"/>
+      <c r="D138" s="38"/>
       <c r="E138" s="27"/>
       <c r="F138" s="27"/>
       <c r="G138" s="24"/>
@@ -4271,9 +4258,9 @@
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A139" s="35"/>
-      <c r="B139" s="40"/>
+      <c r="B139" s="37"/>
       <c r="C139" s="15"/>
-      <c r="D139" s="41"/>
+      <c r="D139" s="38"/>
       <c r="E139" s="27"/>
       <c r="F139" s="27"/>
       <c r="G139" s="24"/>
@@ -4299,9 +4286,9 @@
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A140" s="35"/>
-      <c r="B140" s="40"/>
+      <c r="B140" s="37"/>
       <c r="C140" s="15"/>
-      <c r="D140" s="41"/>
+      <c r="D140" s="38"/>
       <c r="E140" s="27"/>
       <c r="F140" s="27"/>
       <c r="G140" s="24"/>
@@ -4327,9 +4314,9 @@
     </row>
     <row r="141" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A141" s="35"/>
-      <c r="B141" s="40"/>
+      <c r="B141" s="37"/>
       <c r="C141" s="15"/>
-      <c r="D141" s="41"/>
+      <c r="D141" s="38"/>
       <c r="E141" s="27"/>
       <c r="F141" s="27"/>
       <c r="G141" s="24"/>
@@ -4355,9 +4342,9 @@
     </row>
     <row r="142" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A142" s="35"/>
-      <c r="B142" s="40"/>
+      <c r="B142" s="37"/>
       <c r="C142" s="15"/>
-      <c r="D142" s="41"/>
+      <c r="D142" s="38"/>
       <c r="E142" s="27"/>
       <c r="F142" s="27"/>
       <c r="G142" s="24"/>
@@ -4383,9 +4370,9 @@
     </row>
     <row r="143" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A143" s="35"/>
-      <c r="B143" s="40"/>
+      <c r="B143" s="37"/>
       <c r="C143" s="15"/>
-      <c r="D143" s="41"/>
+      <c r="D143" s="38"/>
       <c r="E143" s="27"/>
       <c r="F143" s="27"/>
       <c r="G143" s="24"/>
@@ -4411,9 +4398,9 @@
     </row>
     <row r="144" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A144" s="35"/>
-      <c r="B144" s="40"/>
+      <c r="B144" s="37"/>
       <c r="C144" s="15"/>
-      <c r="D144" s="41"/>
+      <c r="D144" s="38"/>
       <c r="E144" s="27"/>
       <c r="F144" s="27"/>
       <c r="G144" s="24"/>
@@ -4439,9 +4426,9 @@
     </row>
     <row r="145" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A145" s="35"/>
-      <c r="B145" s="40"/>
+      <c r="B145" s="37"/>
       <c r="C145" s="15"/>
-      <c r="D145" s="41"/>
+      <c r="D145" s="38"/>
       <c r="E145" s="27"/>
       <c r="F145" s="27"/>
       <c r="G145" s="24"/>
@@ -4467,9 +4454,9 @@
     </row>
     <row r="146" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A146" s="35"/>
-      <c r="B146" s="40"/>
+      <c r="B146" s="37"/>
       <c r="C146" s="15"/>
-      <c r="D146" s="41"/>
+      <c r="D146" s="38"/>
       <c r="E146" s="27"/>
       <c r="F146" s="27"/>
       <c r="G146" s="24"/>
@@ -4495,9 +4482,9 @@
     </row>
     <row r="147" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A147" s="35"/>
-      <c r="B147" s="40"/>
+      <c r="B147" s="37"/>
       <c r="C147" s="15"/>
-      <c r="D147" s="41"/>
+      <c r="D147" s="38"/>
       <c r="E147" s="27"/>
       <c r="F147" s="27"/>
       <c r="G147" s="24"/>
@@ -4523,9 +4510,9 @@
     </row>
     <row r="148" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A148" s="35"/>
-      <c r="B148" s="40"/>
+      <c r="B148" s="37"/>
       <c r="C148" s="15"/>
-      <c r="D148" s="41"/>
+      <c r="D148" s="38"/>
       <c r="E148" s="27"/>
       <c r="F148" s="27"/>
       <c r="G148" s="24"/>
@@ -4551,9 +4538,9 @@
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A149" s="35"/>
-      <c r="B149" s="40"/>
+      <c r="B149" s="37"/>
       <c r="C149" s="15"/>
-      <c r="D149" s="41"/>
+      <c r="D149" s="38"/>
       <c r="E149" s="27"/>
       <c r="F149" s="27"/>
       <c r="G149" s="24"/>
@@ -4579,9 +4566,9 @@
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A150" s="35"/>
-      <c r="B150" s="40"/>
+      <c r="B150" s="37"/>
       <c r="C150" s="15"/>
-      <c r="D150" s="41"/>
+      <c r="D150" s="38"/>
       <c r="E150" s="27"/>
       <c r="F150" s="27"/>
       <c r="G150" s="24"/>
@@ -4607,9 +4594,9 @@
     </row>
     <row r="151" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A151" s="35"/>
-      <c r="B151" s="40"/>
+      <c r="B151" s="37"/>
       <c r="C151" s="15"/>
-      <c r="D151" s="41"/>
+      <c r="D151" s="38"/>
       <c r="E151" s="27"/>
       <c r="F151" s="27"/>
       <c r="G151" s="24"/>
@@ -4635,9 +4622,9 @@
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A152" s="35"/>
-      <c r="B152" s="40"/>
+      <c r="B152" s="37"/>
       <c r="C152" s="15"/>
-      <c r="D152" s="41"/>
+      <c r="D152" s="38"/>
       <c r="E152" s="27"/>
       <c r="F152" s="27"/>
       <c r="G152" s="24"/>
@@ -4663,9 +4650,9 @@
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A153" s="35"/>
-      <c r="B153" s="40"/>
+      <c r="B153" s="37"/>
       <c r="C153" s="15"/>
-      <c r="D153" s="41"/>
+      <c r="D153" s="38"/>
       <c r="E153" s="27"/>
       <c r="F153" s="27"/>
       <c r="G153" s="24"/>
@@ -4691,9 +4678,9 @@
     </row>
     <row r="154" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A154" s="35"/>
-      <c r="B154" s="40"/>
+      <c r="B154" s="37"/>
       <c r="C154" s="15"/>
-      <c r="D154" s="41"/>
+      <c r="D154" s="38"/>
       <c r="E154" s="27"/>
       <c r="F154" s="27"/>
       <c r="G154" s="24"/>
@@ -4719,9 +4706,9 @@
     </row>
     <row r="155" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A155" s="35"/>
-      <c r="B155" s="40"/>
+      <c r="B155" s="37"/>
       <c r="C155" s="15"/>
-      <c r="D155" s="41"/>
+      <c r="D155" s="38"/>
       <c r="E155" s="27"/>
       <c r="F155" s="27"/>
       <c r="G155" s="24"/>
@@ -4747,9 +4734,9 @@
     </row>
     <row r="156" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A156" s="35"/>
-      <c r="B156" s="40"/>
+      <c r="B156" s="37"/>
       <c r="C156" s="15"/>
-      <c r="D156" s="41"/>
+      <c r="D156" s="38"/>
       <c r="E156" s="27"/>
       <c r="F156" s="27"/>
       <c r="G156" s="24"/>
@@ -4775,9 +4762,9 @@
     </row>
     <row r="157" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A157" s="35"/>
-      <c r="B157" s="40"/>
+      <c r="B157" s="37"/>
       <c r="C157" s="15"/>
-      <c r="D157" s="41"/>
+      <c r="D157" s="38"/>
       <c r="E157" s="27"/>
       <c r="F157" s="27"/>
       <c r="G157" s="24"/>
@@ -4803,9 +4790,9 @@
     </row>
     <row r="158" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A158" s="35"/>
-      <c r="B158" s="40"/>
+      <c r="B158" s="37"/>
       <c r="C158" s="15"/>
-      <c r="D158" s="41"/>
+      <c r="D158" s="38"/>
       <c r="E158" s="27"/>
       <c r="F158" s="27"/>
       <c r="G158" s="24"/>
@@ -4831,9 +4818,9 @@
     </row>
     <row r="159" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A159" s="35"/>
-      <c r="B159" s="40"/>
+      <c r="B159" s="37"/>
       <c r="C159" s="15"/>
-      <c r="D159" s="41"/>
+      <c r="D159" s="38"/>
       <c r="E159" s="27"/>
       <c r="F159" s="27"/>
       <c r="G159" s="24"/>
@@ -4859,9 +4846,9 @@
     </row>
     <row r="160" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A160" s="35"/>
-      <c r="B160" s="40"/>
+      <c r="B160" s="37"/>
       <c r="C160" s="15"/>
-      <c r="D160" s="41"/>
+      <c r="D160" s="38"/>
       <c r="E160" s="27"/>
       <c r="F160" s="27"/>
       <c r="G160" s="24"/>
@@ -4887,9 +4874,9 @@
     </row>
     <row r="161" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A161" s="35"/>
-      <c r="B161" s="40"/>
+      <c r="B161" s="37"/>
       <c r="C161" s="15"/>
-      <c r="D161" s="41"/>
+      <c r="D161" s="38"/>
       <c r="E161" s="27"/>
       <c r="F161" s="27"/>
       <c r="G161" s="24"/>
@@ -4915,9 +4902,9 @@
     </row>
     <row r="162" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A162" s="35"/>
-      <c r="B162" s="40"/>
+      <c r="B162" s="37"/>
       <c r="C162" s="15"/>
-      <c r="D162" s="41"/>
+      <c r="D162" s="38"/>
       <c r="E162" s="27"/>
       <c r="F162" s="27"/>
       <c r="G162" s="24"/>
@@ -4943,9 +4930,9 @@
     </row>
     <row r="163" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A163" s="35"/>
-      <c r="B163" s="40"/>
+      <c r="B163" s="37"/>
       <c r="C163" s="15"/>
-      <c r="D163" s="41"/>
+      <c r="D163" s="38"/>
       <c r="E163" s="27"/>
       <c r="F163" s="27"/>
       <c r="G163" s="24"/>
@@ -4971,9 +4958,9 @@
     </row>
     <row r="164" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A164" s="35"/>
-      <c r="B164" s="40"/>
+      <c r="B164" s="37"/>
       <c r="C164" s="15"/>
-      <c r="D164" s="41"/>
+      <c r="D164" s="38"/>
       <c r="E164" s="27"/>
       <c r="F164" s="27"/>
       <c r="G164" s="24"/>
@@ -4999,9 +4986,9 @@
     </row>
     <row r="165" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A165" s="35"/>
-      <c r="B165" s="40"/>
+      <c r="B165" s="37"/>
       <c r="C165" s="15"/>
-      <c r="D165" s="41"/>
+      <c r="D165" s="38"/>
       <c r="E165" s="27"/>
       <c r="F165" s="27"/>
       <c r="G165" s="24"/>
@@ -5027,9 +5014,9 @@
     </row>
     <row r="166" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A166" s="35"/>
-      <c r="B166" s="40"/>
+      <c r="B166" s="37"/>
       <c r="C166" s="15"/>
-      <c r="D166" s="41"/>
+      <c r="D166" s="38"/>
       <c r="E166" s="27"/>
       <c r="F166" s="27"/>
       <c r="G166" s="24"/>
@@ -5055,9 +5042,9 @@
     </row>
     <row r="167" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A167" s="35"/>
-      <c r="B167" s="40"/>
+      <c r="B167" s="37"/>
       <c r="C167" s="15"/>
-      <c r="D167" s="41"/>
+      <c r="D167" s="38"/>
       <c r="E167" s="27"/>
       <c r="F167" s="27"/>
       <c r="G167" s="24"/>
@@ -5083,9 +5070,9 @@
     </row>
     <row r="168" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A168" s="35"/>
-      <c r="B168" s="40"/>
+      <c r="B168" s="37"/>
       <c r="C168" s="15"/>
-      <c r="D168" s="41"/>
+      <c r="D168" s="38"/>
       <c r="E168" s="27"/>
       <c r="F168" s="27"/>
       <c r="G168" s="24"/>
@@ -5111,9 +5098,9 @@
     </row>
     <row r="169" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A169" s="35"/>
-      <c r="B169" s="40"/>
+      <c r="B169" s="37"/>
       <c r="C169" s="15"/>
-      <c r="D169" s="41"/>
+      <c r="D169" s="38"/>
       <c r="E169" s="27"/>
       <c r="F169" s="27"/>
       <c r="G169" s="24"/>
@@ -5139,9 +5126,9 @@
     </row>
     <row r="170" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A170" s="35"/>
-      <c r="B170" s="40"/>
+      <c r="B170" s="37"/>
       <c r="C170" s="15"/>
-      <c r="D170" s="41"/>
+      <c r="D170" s="38"/>
       <c r="E170" s="27"/>
       <c r="F170" s="27"/>
       <c r="G170" s="24"/>
@@ -5167,9 +5154,9 @@
     </row>
     <row r="171" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A171" s="35"/>
-      <c r="B171" s="40"/>
+      <c r="B171" s="37"/>
       <c r="C171" s="15"/>
-      <c r="D171" s="41"/>
+      <c r="D171" s="38"/>
       <c r="E171" s="27"/>
       <c r="F171" s="27"/>
       <c r="G171" s="24"/>
@@ -5195,9 +5182,9 @@
     </row>
     <row r="172" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A172" s="35"/>
-      <c r="B172" s="40"/>
+      <c r="B172" s="37"/>
       <c r="C172" s="15"/>
-      <c r="D172" s="41"/>
+      <c r="D172" s="38"/>
       <c r="E172" s="27"/>
       <c r="F172" s="27"/>
       <c r="G172" s="24"/>
@@ -5223,9 +5210,9 @@
     </row>
     <row r="173" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A173" s="35"/>
-      <c r="B173" s="40"/>
+      <c r="B173" s="37"/>
       <c r="C173" s="15"/>
-      <c r="D173" s="41"/>
+      <c r="D173" s="38"/>
       <c r="E173" s="27"/>
       <c r="F173" s="27"/>
       <c r="G173" s="24"/>
@@ -5251,9 +5238,9 @@
     </row>
     <row r="174" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A174" s="35"/>
-      <c r="B174" s="40"/>
+      <c r="B174" s="37"/>
       <c r="C174" s="15"/>
-      <c r="D174" s="41"/>
+      <c r="D174" s="38"/>
       <c r="E174" s="27"/>
       <c r="F174" s="27"/>
       <c r="G174" s="24"/>
@@ -5279,9 +5266,9 @@
     </row>
     <row r="175" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A175" s="35"/>
-      <c r="B175" s="40"/>
+      <c r="B175" s="37"/>
       <c r="C175" s="15"/>
-      <c r="D175" s="41"/>
+      <c r="D175" s="38"/>
       <c r="E175" s="27"/>
       <c r="F175" s="27"/>
       <c r="G175" s="24"/>
@@ -5307,9 +5294,9 @@
     </row>
     <row r="176" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A176" s="35"/>
-      <c r="B176" s="40"/>
+      <c r="B176" s="37"/>
       <c r="C176" s="15"/>
-      <c r="D176" s="41"/>
+      <c r="D176" s="38"/>
       <c r="E176" s="27"/>
       <c r="F176" s="27"/>
       <c r="G176" s="24"/>
@@ -5335,9 +5322,9 @@
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A177" s="35"/>
-      <c r="B177" s="40"/>
+      <c r="B177" s="37"/>
       <c r="C177" s="15"/>
-      <c r="D177" s="41"/>
+      <c r="D177" s="38"/>
       <c r="E177" s="27"/>
       <c r="F177" s="27"/>
       <c r="G177" s="24"/>
@@ -5363,9 +5350,9 @@
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A178" s="35"/>
-      <c r="B178" s="40"/>
+      <c r="B178" s="37"/>
       <c r="C178" s="15"/>
-      <c r="D178" s="41"/>
+      <c r="D178" s="38"/>
       <c r="E178" s="27"/>
       <c r="F178" s="27"/>
       <c r="G178" s="24"/>
@@ -5391,9 +5378,9 @@
     </row>
     <row r="179" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A179" s="35"/>
-      <c r="B179" s="40"/>
+      <c r="B179" s="37"/>
       <c r="C179" s="15"/>
-      <c r="D179" s="41"/>
+      <c r="D179" s="38"/>
       <c r="E179" s="27"/>
       <c r="F179" s="27"/>
       <c r="G179" s="24"/>
@@ -5419,9 +5406,9 @@
     </row>
     <row r="180" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A180" s="35"/>
-      <c r="B180" s="40"/>
+      <c r="B180" s="37"/>
       <c r="C180" s="15"/>
-      <c r="D180" s="41"/>
+      <c r="D180" s="38"/>
       <c r="E180" s="27"/>
       <c r="F180" s="27"/>
       <c r="G180" s="24"/>
@@ -5447,9 +5434,9 @@
     </row>
     <row r="181" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A181" s="35"/>
-      <c r="B181" s="40"/>
+      <c r="B181" s="37"/>
       <c r="C181" s="15"/>
-      <c r="D181" s="41"/>
+      <c r="D181" s="38"/>
       <c r="E181" s="27"/>
       <c r="F181" s="27"/>
       <c r="G181" s="24"/>
@@ -5475,9 +5462,9 @@
     </row>
     <row r="182" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A182" s="35"/>
-      <c r="B182" s="40"/>
+      <c r="B182" s="37"/>
       <c r="C182" s="15"/>
-      <c r="D182" s="41"/>
+      <c r="D182" s="38"/>
       <c r="E182" s="27"/>
       <c r="F182" s="27"/>
       <c r="G182" s="24"/>
@@ -5503,9 +5490,9 @@
     </row>
     <row r="183" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A183" s="35"/>
-      <c r="B183" s="40"/>
+      <c r="B183" s="37"/>
       <c r="C183" s="15"/>
-      <c r="D183" s="41"/>
+      <c r="D183" s="38"/>
       <c r="E183" s="27"/>
       <c r="F183" s="27"/>
       <c r="G183" s="24"/>
@@ -5531,9 +5518,9 @@
     </row>
     <row r="184" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A184" s="35"/>
-      <c r="B184" s="40"/>
+      <c r="B184" s="37"/>
       <c r="C184" s="15"/>
-      <c r="D184" s="41"/>
+      <c r="D184" s="38"/>
       <c r="E184" s="27"/>
       <c r="F184" s="27"/>
       <c r="G184" s="24"/>
@@ -5559,9 +5546,9 @@
     </row>
     <row r="185" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A185" s="35"/>
-      <c r="B185" s="40"/>
+      <c r="B185" s="37"/>
       <c r="C185" s="15"/>
-      <c r="D185" s="41"/>
+      <c r="D185" s="38"/>
       <c r="E185" s="27"/>
       <c r="F185" s="27"/>
       <c r="G185" s="24"/>
@@ -5587,9 +5574,9 @@
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A186" s="35"/>
-      <c r="B186" s="40"/>
+      <c r="B186" s="37"/>
       <c r="C186" s="15"/>
-      <c r="D186" s="41"/>
+      <c r="D186" s="38"/>
       <c r="E186" s="27"/>
       <c r="F186" s="27"/>
       <c r="G186" s="24"/>
@@ -5615,9 +5602,9 @@
     </row>
     <row r="187" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A187" s="35"/>
-      <c r="B187" s="40"/>
+      <c r="B187" s="37"/>
       <c r="C187" s="15"/>
-      <c r="D187" s="41"/>
+      <c r="D187" s="38"/>
       <c r="E187" s="27"/>
       <c r="F187" s="27"/>
       <c r="G187" s="24"/>
@@ -5643,9 +5630,9 @@
     </row>
     <row r="188" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A188" s="35"/>
-      <c r="B188" s="40"/>
+      <c r="B188" s="37"/>
       <c r="C188" s="15"/>
-      <c r="D188" s="41"/>
+      <c r="D188" s="38"/>
       <c r="E188" s="27"/>
       <c r="F188" s="27"/>
       <c r="G188" s="24"/>
@@ -5671,9 +5658,9 @@
     </row>
     <row r="189" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A189" s="35"/>
-      <c r="B189" s="40"/>
+      <c r="B189" s="37"/>
       <c r="C189" s="15"/>
-      <c r="D189" s="41"/>
+      <c r="D189" s="38"/>
       <c r="E189" s="27"/>
       <c r="F189" s="27"/>
       <c r="G189" s="24"/>
@@ -5699,9 +5686,9 @@
     </row>
     <row r="190" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A190" s="35"/>
-      <c r="B190" s="40"/>
+      <c r="B190" s="37"/>
       <c r="C190" s="15"/>
-      <c r="D190" s="41"/>
+      <c r="D190" s="38"/>
       <c r="E190" s="27"/>
       <c r="F190" s="27"/>
       <c r="G190" s="24"/>
@@ -5727,9 +5714,9 @@
     </row>
     <row r="191" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A191" s="35"/>
-      <c r="B191" s="40"/>
+      <c r="B191" s="37"/>
       <c r="C191" s="15"/>
-      <c r="D191" s="41"/>
+      <c r="D191" s="38"/>
       <c r="E191" s="27"/>
       <c r="F191" s="27"/>
       <c r="G191" s="24"/>
@@ -5755,9 +5742,9 @@
     </row>
     <row r="192" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A192" s="35"/>
-      <c r="B192" s="40"/>
+      <c r="B192" s="37"/>
       <c r="C192" s="15"/>
-      <c r="D192" s="41"/>
+      <c r="D192" s="38"/>
       <c r="E192" s="27"/>
       <c r="F192" s="27"/>
       <c r="G192" s="24"/>
@@ -5783,9 +5770,9 @@
     </row>
     <row r="193" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A193" s="35"/>
-      <c r="B193" s="40"/>
+      <c r="B193" s="37"/>
       <c r="C193" s="15"/>
-      <c r="D193" s="41"/>
+      <c r="D193" s="38"/>
       <c r="E193" s="27"/>
       <c r="F193" s="27"/>
       <c r="G193" s="24"/>
@@ -5811,9 +5798,9 @@
     </row>
     <row r="194" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A194" s="35"/>
-      <c r="B194" s="40"/>
+      <c r="B194" s="37"/>
       <c r="C194" s="15"/>
-      <c r="D194" s="41"/>
+      <c r="D194" s="38"/>
       <c r="E194" s="27"/>
       <c r="F194" s="27"/>
       <c r="G194" s="24"/>
@@ -5839,9 +5826,9 @@
     </row>
     <row r="195" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A195" s="35"/>
-      <c r="B195" s="40"/>
+      <c r="B195" s="37"/>
       <c r="C195" s="15"/>
-      <c r="D195" s="41"/>
+      <c r="D195" s="38"/>
       <c r="E195" s="27"/>
       <c r="F195" s="27"/>
       <c r="G195" s="24"/>
@@ -5867,9 +5854,9 @@
     </row>
     <row r="196" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A196" s="35"/>
-      <c r="B196" s="40"/>
+      <c r="B196" s="37"/>
       <c r="C196" s="15"/>
-      <c r="D196" s="41"/>
+      <c r="D196" s="38"/>
       <c r="E196" s="27"/>
       <c r="F196" s="27"/>
       <c r="G196" s="24"/>
@@ -5895,9 +5882,9 @@
     </row>
     <row r="197" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A197" s="35"/>
-      <c r="B197" s="40"/>
+      <c r="B197" s="37"/>
       <c r="C197" s="15"/>
-      <c r="D197" s="41"/>
+      <c r="D197" s="38"/>
       <c r="E197" s="27"/>
       <c r="F197" s="27"/>
       <c r="G197" s="24"/>
@@ -5923,9 +5910,9 @@
     </row>
     <row r="198" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A198" s="35"/>
-      <c r="B198" s="40"/>
+      <c r="B198" s="37"/>
       <c r="C198" s="15"/>
-      <c r="D198" s="41"/>
+      <c r="D198" s="38"/>
       <c r="E198" s="27"/>
       <c r="F198" s="27"/>
       <c r="G198" s="24"/>
@@ -5951,9 +5938,9 @@
     </row>
     <row r="199" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A199" s="35"/>
-      <c r="B199" s="40"/>
+      <c r="B199" s="37"/>
       <c r="C199" s="15"/>
-      <c r="D199" s="41"/>
+      <c r="D199" s="38"/>
       <c r="E199" s="27"/>
       <c r="F199" s="27"/>
       <c r="G199" s="24"/>
@@ -5979,9 +5966,9 @@
     </row>
     <row r="200" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A200" s="35"/>
-      <c r="B200" s="40"/>
+      <c r="B200" s="37"/>
       <c r="C200" s="15"/>
-      <c r="D200" s="41"/>
+      <c r="D200" s="38"/>
       <c r="E200" s="27"/>
       <c r="F200" s="27"/>
       <c r="G200" s="24"/>
@@ -6007,9 +5994,9 @@
     </row>
     <row r="201" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A201" s="35"/>
-      <c r="B201" s="40"/>
+      <c r="B201" s="37"/>
       <c r="C201" s="15"/>
-      <c r="D201" s="41"/>
+      <c r="D201" s="38"/>
       <c r="E201" s="27"/>
       <c r="F201" s="27"/>
       <c r="G201" s="24"/>
@@ -6035,9 +6022,9 @@
     </row>
     <row r="202" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A202" s="35"/>
-      <c r="B202" s="40"/>
+      <c r="B202" s="37"/>
       <c r="C202" s="15"/>
-      <c r="D202" s="41"/>
+      <c r="D202" s="38"/>
       <c r="E202" s="27"/>
       <c r="F202" s="27"/>
       <c r="G202" s="24"/>
@@ -6063,9 +6050,9 @@
     </row>
     <row r="203" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A203" s="35"/>
-      <c r="B203" s="40"/>
+      <c r="B203" s="37"/>
       <c r="C203" s="15"/>
-      <c r="D203" s="41"/>
+      <c r="D203" s="38"/>
       <c r="E203" s="27"/>
       <c r="F203" s="27"/>
       <c r="G203" s="24"/>
@@ -6091,9 +6078,9 @@
     </row>
     <row r="204" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A204" s="35"/>
-      <c r="B204" s="40"/>
+      <c r="B204" s="37"/>
       <c r="C204" s="15"/>
-      <c r="D204" s="41"/>
+      <c r="D204" s="38"/>
       <c r="E204" s="27"/>
       <c r="F204" s="27"/>
       <c r="G204" s="24"/>
@@ -6119,9 +6106,9 @@
     </row>
     <row r="205" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A205" s="35"/>
-      <c r="B205" s="40"/>
+      <c r="B205" s="37"/>
       <c r="C205" s="15"/>
-      <c r="D205" s="41"/>
+      <c r="D205" s="38"/>
       <c r="E205" s="27"/>
       <c r="F205" s="27"/>
       <c r="G205" s="24"/>
@@ -6147,9 +6134,9 @@
     </row>
     <row r="206" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A206" s="35"/>
-      <c r="B206" s="40"/>
+      <c r="B206" s="37"/>
       <c r="C206" s="15"/>
-      <c r="D206" s="41"/>
+      <c r="D206" s="38"/>
       <c r="E206" s="27"/>
       <c r="F206" s="27"/>
       <c r="G206" s="24"/>
@@ -6175,9 +6162,9 @@
     </row>
     <row r="207" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A207" s="35"/>
-      <c r="B207" s="40"/>
+      <c r="B207" s="37"/>
       <c r="C207" s="15"/>
-      <c r="D207" s="41"/>
+      <c r="D207" s="38"/>
       <c r="E207" s="27"/>
       <c r="F207" s="27"/>
       <c r="G207" s="24"/>
@@ -6203,9 +6190,9 @@
     </row>
     <row r="208" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A208" s="35"/>
-      <c r="B208" s="40"/>
+      <c r="B208" s="37"/>
       <c r="C208" s="15"/>
-      <c r="D208" s="41"/>
+      <c r="D208" s="38"/>
       <c r="E208" s="27"/>
       <c r="F208" s="27"/>
       <c r="G208" s="24"/>
@@ -6231,9 +6218,9 @@
     </row>
     <row r="209" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A209" s="35"/>
-      <c r="B209" s="40"/>
+      <c r="B209" s="37"/>
       <c r="C209" s="15"/>
-      <c r="D209" s="41"/>
+      <c r="D209" s="38"/>
       <c r="E209" s="27"/>
       <c r="F209" s="27"/>
       <c r="G209" s="24"/>
@@ -6259,9 +6246,9 @@
     </row>
     <row r="210" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A210" s="35"/>
-      <c r="B210" s="40"/>
+      <c r="B210" s="37"/>
       <c r="C210" s="15"/>
-      <c r="D210" s="41"/>
+      <c r="D210" s="38"/>
       <c r="E210" s="27"/>
       <c r="F210" s="27"/>
       <c r="G210" s="24"/>
@@ -6287,9 +6274,9 @@
     </row>
     <row r="211" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A211" s="35"/>
-      <c r="B211" s="40"/>
+      <c r="B211" s="37"/>
       <c r="C211" s="15"/>
-      <c r="D211" s="41"/>
+      <c r="D211" s="38"/>
       <c r="E211" s="27"/>
       <c r="F211" s="27"/>
       <c r="G211" s="24"/>
@@ -6315,9 +6302,9 @@
     </row>
     <row r="212" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A212" s="35"/>
-      <c r="B212" s="40"/>
+      <c r="B212" s="37"/>
       <c r="C212" s="15"/>
-      <c r="D212" s="41"/>
+      <c r="D212" s="38"/>
       <c r="E212" s="27"/>
       <c r="F212" s="27"/>
       <c r="G212" s="24"/>
@@ -6343,9 +6330,9 @@
     </row>
     <row r="213" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A213" s="35"/>
-      <c r="B213" s="40"/>
+      <c r="B213" s="37"/>
       <c r="C213" s="15"/>
-      <c r="D213" s="41"/>
+      <c r="D213" s="38"/>
       <c r="E213" s="27"/>
       <c r="F213" s="27"/>
       <c r="G213" s="24"/>
@@ -6371,9 +6358,9 @@
     </row>
     <row r="214" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A214" s="35"/>
-      <c r="B214" s="40"/>
+      <c r="B214" s="37"/>
       <c r="C214" s="15"/>
-      <c r="D214" s="41"/>
+      <c r="D214" s="38"/>
       <c r="E214" s="27"/>
       <c r="F214" s="27"/>
       <c r="G214" s="24"/>
@@ -6399,9 +6386,9 @@
     </row>
     <row r="215" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A215" s="35"/>
-      <c r="B215" s="40"/>
+      <c r="B215" s="37"/>
       <c r="C215" s="15"/>
-      <c r="D215" s="41"/>
+      <c r="D215" s="38"/>
       <c r="E215" s="27"/>
       <c r="F215" s="27"/>
       <c r="G215" s="24"/>
@@ -6427,9 +6414,9 @@
     </row>
     <row r="216" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A216" s="35"/>
-      <c r="B216" s="40"/>
+      <c r="B216" s="37"/>
       <c r="C216" s="15"/>
-      <c r="D216" s="41"/>
+      <c r="D216" s="38"/>
       <c r="E216" s="27"/>
       <c r="F216" s="27"/>
       <c r="G216" s="24"/>
@@ -6455,9 +6442,9 @@
     </row>
     <row r="217" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A217" s="35"/>
-      <c r="B217" s="40"/>
+      <c r="B217" s="37"/>
       <c r="C217" s="15"/>
-      <c r="D217" s="41"/>
+      <c r="D217" s="38"/>
       <c r="E217" s="27"/>
       <c r="F217" s="27"/>
       <c r="G217" s="24"/>
@@ -6483,9 +6470,9 @@
     </row>
     <row r="218" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A218" s="35"/>
-      <c r="B218" s="40"/>
+      <c r="B218" s="37"/>
       <c r="C218" s="15"/>
-      <c r="D218" s="41"/>
+      <c r="D218" s="38"/>
       <c r="E218" s="27"/>
       <c r="F218" s="27"/>
       <c r="G218" s="24"/>
@@ -6511,9 +6498,9 @@
     </row>
     <row r="219" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A219" s="35"/>
-      <c r="B219" s="40"/>
+      <c r="B219" s="37"/>
       <c r="C219" s="15"/>
-      <c r="D219" s="41"/>
+      <c r="D219" s="38"/>
       <c r="E219" s="27"/>
       <c r="F219" s="27"/>
       <c r="G219" s="24"/>
@@ -6539,9 +6526,9 @@
     </row>
     <row r="220" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A220" s="35"/>
-      <c r="B220" s="40"/>
+      <c r="B220" s="37"/>
       <c r="C220" s="15"/>
-      <c r="D220" s="41"/>
+      <c r="D220" s="38"/>
       <c r="E220" s="27"/>
       <c r="F220" s="27"/>
       <c r="G220" s="24"/>
@@ -21903,7 +21890,8 @@
     <row r="999" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1000" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="I4:I10"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="H18:H19"/>
